--- a/test/src/main/resources/testData/TestData.xlsx
+++ b/test/src/main/resources/testData/TestData.xlsx
@@ -805,7 +805,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -816,7 +816,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -856,7 +856,7 @@
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="35">
-        <v>8106097180</v>
+        <v>9951398448</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="35">
-        <v>8106097180</v>
+        <v>9951398448</v>
       </c>
       <c r="E3" s="20"/>
     </row>
